--- a/biology/Botanique/Ajowan/Ajowan.xlsx
+++ b/biology/Botanique/Ajowan/Ajowan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trachyspermum ammi
-L'Ajowan (Trachyspermum ammi) est la graine d'une plante originaire du sud de l'Inde proche du carvi, du cumin et de l'aneth. Son goût rappelle celui du thym[1].
+L'Ajowan (Trachyspermum ammi) est la graine d'une plante originaire du sud de l'Inde proche du carvi, du cumin et de l'aneth. Son goût rappelle celui du thym.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Caractéristiques botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Famille des Apiaceae (anciennement ombellifères)
 Plante annuelle
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,12 +590,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Usage culinaire
-C'est une épice utilisée en Inde, surtout dans les plats végétariens. On peut notamment l'utiliser dans des hors-d'œuvre feuilletés, dans des plats de haricots ou dans des galettes indiennes. Elle fait aussi souvent partie des mélanges destinés à la friture d’épices (tadka). En Asie, elle est surtout utilisée dans la fabrication des pains et des pâtisseries ainsi que sur les légumes cuits[1].
-Usage thérapeutique
-L'ajowan est surtout utilisée pour soigner les problèmes gastriques ; il suffit pour cela de mâcher des graines. Cette plante peut aussi soigner des rhumatismes et l'asthme, sous forme de cataplasmes.
-L'ajowan est également utilisée sous forme d'huile essentielle en application locale pour traiter diverses infections bactériennes même sévères.
-Son huile essentielle se présente sous la forme d'un liquide mobile, limpide, transparent à brun. Son odeur est semblable à celle du thym. Elle est composée de :
+          <t>Usage culinaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une épice utilisée en Inde, surtout dans les plats végétariens. On peut notamment l'utiliser dans des hors-d'œuvre feuilletés, dans des plats de haricots ou dans des galettes indiennes. Elle fait aussi souvent partie des mélanges destinés à la friture d’épices (tadka). En Asie, elle est surtout utilisée dans la fabrication des pains et des pâtisseries ainsi que sur les légumes cuits.
 </t>
         </is>
       </c>
@@ -605,12 +622,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Culture</t>
+          <t>Utilisation</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'ajowan est cultivée en Inde, en Iran, au Pakistan, en Afghanistan et en Égypte. Les graines mûres une fois récoltées sont séchées et battues.
+          <t>Usage thérapeutique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ajowan est surtout utilisée pour soigner les problèmes gastriques ; il suffit pour cela de mâcher des graines. Cette plante peut aussi soigner des rhumatismes et l'asthme, sous forme de cataplasmes.
+L'ajowan est également utilisée sous forme d'huile essentielle en application locale pour traiter diverses infections bactériennes même sévères.
+Son huile essentielle se présente sous la forme d'un liquide mobile, limpide, transparent à brun. Son odeur est semblable à celle du thym. Elle est composée de :
 </t>
         </is>
       </c>
@@ -636,10 +661,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ajowan est cultivée en Inde, en Iran, au Pakistan, en Afghanistan et en Égypte. Les graines mûres une fois récoltées sont séchées et battues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ajowan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ajowan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ammi copticumL.
 Carum copticum (L.) Benth. &amp; Hook.f. ex C.B.Clarke
